--- a/src/co/jp/finalAnnouncement/Pet_Hotel_UML.xlsx
+++ b/src/co/jp/finalAnnouncement/Pet_Hotel_UML.xlsx
@@ -8997,10 +8997,10 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-              <a:t>checkIn</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>3,extra</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -9033,6 +9033,151 @@
           <a:chExt cx="2268" cy="1134"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="文本框 225"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2995" y="5902"/>
+            <a:ext cx="2167" cy="680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>4,roomInfo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="225" name="流程图: 过程 224"/>
@@ -9173,151 +9318,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="226" name="文本框 225"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3108" y="5902"/>
-            <a:ext cx="1941" cy="680"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-              <a:t>roomInfo</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -16573,13 +16573,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
+      <xdr:colOff>58420</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>427990</xdr:colOff>
+      <xdr:colOff>456565</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
@@ -16590,12 +16590,157 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13618210" y="4229735"/>
-          <a:ext cx="1440180" cy="724535"/>
-          <a:chOff x="2987" y="5680"/>
-          <a:chExt cx="2268" cy="1134"/>
+          <a:off x="13469620" y="4229735"/>
+          <a:ext cx="1617345" cy="724535"/>
+          <a:chOff x="2753" y="5680"/>
+          <a:chExt cx="2549" cy="1134"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="296" name="文本框 295"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2753" y="5902"/>
+            <a:ext cx="2549" cy="680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>5,petStatus</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
           <xdr:cNvPr id="295" name="流程图: 过程 294"/>
@@ -16736,151 +16881,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="296" name="文本框 295"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3091" y="5902"/>
-            <a:ext cx="1958" cy="680"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-              <a:t>petStatus</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -18131,6 +18131,151 @@
       </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
+          <xdr:cNvPr id="315" name="文本框 314"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3008" y="5902"/>
+            <a:ext cx="2209" cy="680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>6,checkOut</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
           <xdr:cNvPr id="314" name="流程图: 过程 313"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
@@ -18269,151 +18414,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="315" name="文本框 314"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3091" y="5902"/>
-            <a:ext cx="1958" cy="680"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-              <a:t>checkOut</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -18728,7 +18728,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-              <a:t>exit</a:t>
+              <a:t>7,exit</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
           </a:p>
@@ -20419,13 +20419,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>217805</xdr:colOff>
+      <xdr:colOff>220345</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>316230</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:to>
@@ -20439,8 +20439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8752205" y="3475990"/>
-          <a:ext cx="5586095" cy="753745"/>
+          <a:off x="8754745" y="3475990"/>
+          <a:ext cx="5582285" cy="753745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -21370,7 +21370,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="AH75" sqref="AH75"/>
+      <selection activeCell="AM42" sqref="AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
